--- a/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-3.963410424145536</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.607086194327934</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.266397182502493</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2.943714713736077</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.641412022640431</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.360863478692403</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.102666294833678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.866817202587862</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.652857522626579</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.459991928993388</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.287185193361668</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.133240468807211</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.9968620790415158</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.8767053092082017</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.7714153191393719</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.6796569927913579</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.6001372794072422</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.5316213603840914</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.4729437830564324</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.4230155337280887</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3808278740579024</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.345453635019414</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3160465492770865</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.29183910435867</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2721393139861996</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.256326731968302</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2438479708352229</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2342119346715387</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2269849312105715</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2217857911310396</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2182810916689803</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2161805562516441</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2152326810946298</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2152206228885974</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2159583682310807</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2172871948025303</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2190724259839838</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2212004742695096</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2235761640982106</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2261644606848098</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2288498918334846</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2315828953889159</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2343223116744667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.067151605762078</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.001020239102239</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.9318776050153531</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.8615034485463113</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.7917918799011158</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7240986086246236</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.6593791833508542</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.5982900110343201</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5412563565948378</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.4885222965692086</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4401896424547957</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3962492945255324</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3566069534560479</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.3211043776028432</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2895369816263607</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2616683513631596</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.2372421207860682</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.2159915784101665</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1976473196454292</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.181943225242188</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1686210168099908</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1574336146028061</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1481474986070058</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1405442508437573</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1344214346789861</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1295929460287067</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1258889519051173</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1231555139704578</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1212539787698856</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1200602021350559</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1194636628484821</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.11936650994369</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1196825788605568</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1203364039326983</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1212622482005094</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1224031661669711</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1237101106981033</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1251410916818801</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1266603911759674</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1283521057133049</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1300643089845209</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1317787063611311</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1334815951476405</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.06423732316564372</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1041943845462536</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1307732426360347</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1463524068372044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1529368352269173</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1522055590914152</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1455727752884592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1342335735162782</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1191987446118312</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1013224199668643</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.08132458671912556</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.05980978119829101</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03728287315676632</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01416259498830416</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.009206717886234297</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.0325448465555223</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.0556266362646179</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.07827400622343465</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.100348898375954</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1217470685138376</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.142392639070252</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.1622333423570058</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1812363887699545</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1993848984447171</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.2166748381156636</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.2331124081173424</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.2487118278346753</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.2634934715191629</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.2774823101976773</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.2907066193147228</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.3031969156644029</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.3149850909902148</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.326103713283534</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.3365854702408247</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.346462732510552</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.3557672172561753</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.3645297351772122</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.3727800064718093</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.3805465333043607</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.3882213055740165</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.3954635239908944</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.4022956344205448</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.40873938667997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.02731054960003699</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1754155870405932</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.284300672603759</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3614015487758684</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4130548547260027</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4445276272739003</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4601863406924912</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4636364864095658</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4578414735403116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4452237151265963</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4277504748059295</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4070068012636985</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3842575559098187</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3605002175572514</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3365098611150671</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3128774662693413</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2900425160998888</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2683206888708412</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2479273216217676</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2289972246873731</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2116013458993561</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1957607172059846</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1814580611783878</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.168647387735444</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1572618705588624</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1472202568022679</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1384320319396435</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.1308015333367558</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.1242311809275456</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1186239709095475</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1138853583784449</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1099246370817553</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.1066559087887749</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.103998720966414</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.101878439347159</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1002264114136335</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.09897996765032147</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.09808229948207939</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.09748224599547374</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.09730090366727309</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.09730648564781502</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.09746801340369995</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.09775710701294336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.1295652410397181</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1262450522465326</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1213108070476515</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1150180175738523</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1079218576816249</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1004030825761129</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.09273965872237142</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.08513831440832957</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.07775164757254155</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.07068955190823357</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.06402788840254338</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05781544705170943</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.0520796474847988</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04683122966376383</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.0420681104235309</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.03777854422242321</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.03394370202357717</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.03053976341304841</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.02753960169371568</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.02491412896813119</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.02263335766908944</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.0206672262336458</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.01898622931261185</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.0175618867812455</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.01636708063872774</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.01537628447395747</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01456570639502603</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.01391336306423934</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.01339909966942653</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.01300456823305545</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.01271317456361275</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.01251000234775298</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.01238172133209023</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01231648521980264</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01230382378247109</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01233453273752384</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01240056414438999</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01249491940819019</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01261154643066937</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01277249629912492</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01293630411015102</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01310494221078233</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.0132773599610178</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +1306,132 @@
       </c>
       <c r="E7" t="n">
         <v>0.005815869335995102</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001813328671441514</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.001292286186581494</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.003495871840557282</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.005037598986640832</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.006063044368081309</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.006682871858977187</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.006986028575596409</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.007045160084996388</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.006919744976548231</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.006658328899196069</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.00630030095668974</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.005877372568962401</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.005414829155296451</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.004932594927101672</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.004446139506076419</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.00396724933695996</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.003504683112046195</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.003064727530662554</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.00265166733801386</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.002268181600042442</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.001915676505126141</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.001594563584480075</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.001304491062068046</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.001044535039973856</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.0008133563620468418</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.0006093282501110184</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.0004306391525482802</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.0002753746690432796</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.0001415819062248564</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-2.731916810972974e-05</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.93065141153539e-05</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0001501118617494037</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.000216817998299576</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0002710377042340988</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0003142679521936506</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0003478866079276756</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0003731523645754129</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0003912071355955721</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0003882210625953605</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0003895179015730062</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0003883201971351244</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0003841826109986727</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
@@ -443,50 +443,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.390788755123801</v>
+        <v>-1.526521720180534</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.057721761500193</v>
+        <v>-1.356031934776401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.201188321554301</v>
+        <v>-0.5259137153876586</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.196505850696464</v>
+        <v>-0.6159626380292385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3076903195442789</v>
+        <v>-0.9828431296275644</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1684156569024544</v>
+        <v>-0.7840647253875993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.17724119669887</v>
+        <v>-0.7149994499608116</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7558479687417927</v>
+        <v>-0.6303839189168619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.08510950074080006</v>
+        <v>0.807323655534443</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1127096247864402</v>
+        <v>0.5862204236525466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.06541263270605759</v>
+        <v>-0.1198885221354363</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03108846231321761</v>
+        <v>-1.969752515742964e-05</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.526521720180534</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.356031934776401</v>
+        <v>-105.887540230357</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-423.7703112008439</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2257914.998695466</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-796948511.7800217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-241923537953.5019</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-69556378333898.71</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.929968358403642e+16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.214099365283171e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.379339118921484e+21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-3.570643344586957e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-9.055649038096875e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2.261637941677171e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-5.602547861823997e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.381114534473173e+33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-3.391527605264924e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-8.310062931270042e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-2.035025336630176e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-4.984945818600842e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5259137153876586</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6159626380292385</v>
+        <v>-91.50156156679026</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20398.84125187307</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3729683.643309769</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-708926658.521165</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-137036728453.9774</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-26565758862733.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-4933769354479878</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.093414429489686e+17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.648590427360468e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.905324393148314e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.883973608763257e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.573473759333211e+26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.016384166799409e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.02072447455898e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.515974928385321e+32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1.298066142634713e+35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-3.606351361404414e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-6.20465347621206e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.9828431296275644</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7840647253875993</v>
+        <v>-37.3856736201392</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3605.83386231337</v>
+      </c>
+      <c r="D4" t="n">
+        <v>597608.2784633371</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76500185.88382883</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5593945912.290071</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-670998559267.8333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-180487872261025.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.387293773469449e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-4.400891470100404e+18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1.464594869207166e+20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.251146652340841e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.53638403926917e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.202352703387804e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.297758968214318e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.074088193637579e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.8341445785591e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.449962612914107e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.485561826352686e+39</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.7149994499608116</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6303839189168619</v>
+        <v>62.70481496860483</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6962.007188279983</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1272930.107868484</v>
+      </c>
+      <c r="E5" t="n">
+        <v>274696336.7557957</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57443388700.50078</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11573909426070.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2140667666749535</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.721417228238032e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.88110991290336e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-8.001425468955014e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-8.724432767196372e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-7.460880880823585e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-7.930609095198493e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.378064453508017e+30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2.407076393761308e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-4.292727335298168e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-7.863526935818906e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.460791566723002e+39</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.807323655534443</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5862204236525466</v>
+        <v>46.26634212775927</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1111.919801866168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-328307.2507687235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-38229508.62856968</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3434500800.793842</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-190710517305.7799</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52457107918889.59</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.385455856756534e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.824401630156151e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.161137216471457e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.640298731810143e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.062068118104962e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.774418677753765e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.779714970973e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.948224143948945e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.961400868661381e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.231759650004992e+35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.088378438284379e+37</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.1198885221354363</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.969752515742964e-05</v>
+        <v>-4.280939842960842</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5253.121963825627</v>
+      </c>
+      <c r="D7" t="n">
+        <v>651009.3540266006</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81063511.76994532</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9158026691.554754</v>
+      </c>
+      <c r="G7" t="n">
+        <v>823369565815.3275</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-26370054848166.36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5527602228218800</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.974825376268806e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.143326611989307e+20</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.405368061884534e+22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.905551828097895e+24</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.297420638626605e+26</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.338896669922746e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.164484694771914e+31</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.02612310914652e+33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.360077956779846e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.440948609863128e+37</v>
       </c>
     </row>
   </sheetData>
